--- a/JupyterNotebooks/AveragedIntensities-SRP/SA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/SA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,67 +617,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.049157060518732</v>
+        <v>1.050158501440922</v>
       </c>
       <c r="D3">
-        <v>0.8869524495677233</v>
+        <v>0.8878458213256484</v>
       </c>
       <c r="E3">
-        <v>1.022802593659942</v>
+        <v>1.02193083573487</v>
       </c>
       <c r="F3">
-        <v>0.9746181556195965</v>
+        <v>0.9745749279538904</v>
       </c>
       <c r="G3">
-        <v>1.049157060518732</v>
+        <v>1.050158501440922</v>
       </c>
       <c r="H3">
-        <v>0.8869524495677233</v>
+        <v>0.8878458213256484</v>
       </c>
       <c r="I3">
-        <v>1.029812680115274</v>
+        <v>1.029517291066282</v>
       </c>
       <c r="J3">
-        <v>0.9770461095100864</v>
+        <v>0.976707492795389</v>
       </c>
       <c r="K3">
-        <v>1.019099423631124</v>
+        <v>1.019279538904899</v>
       </c>
       <c r="L3">
-        <v>0.9309438040345821</v>
+        <v>0.9312608069164265</v>
       </c>
       <c r="M3">
-        <v>1.049149855907781</v>
+        <v>1.050151296829971</v>
       </c>
       <c r="N3">
-        <v>1.049157060518732</v>
+        <v>1.050158501440922</v>
       </c>
       <c r="O3">
-        <v>0.9548775216138328</v>
+        <v>1.02193083573487</v>
       </c>
       <c r="P3">
-        <v>0.9987103746397694</v>
+        <v>0.9548883285302594</v>
       </c>
       <c r="Q3">
-        <v>0.9863040345821324</v>
+        <v>0.9982528818443804</v>
       </c>
       <c r="R3">
-        <v>0.9614577329490874</v>
+        <v>0.9866450528338137</v>
       </c>
       <c r="S3">
-        <v>0.9863040345821327</v>
+        <v>0.9614505283381364</v>
       </c>
       <c r="T3">
-        <v>0.9833825648414987</v>
+        <v>0.9866450528338137</v>
       </c>
       <c r="U3">
-        <v>0.9965374639769454</v>
+        <v>0.9836275216138328</v>
       </c>
       <c r="V3">
-        <v>0.9863040345821326</v>
+        <v>0.9969337175792508</v>
+      </c>
+      <c r="W3">
+        <v>0.9864094020172911</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001721851899061</v>
+        <v>1.00369818621128</v>
       </c>
       <c r="D4">
-        <v>0.9835718836140037</v>
+        <v>0.984758933856594</v>
       </c>
       <c r="E4">
-        <v>0.9957512597509728</v>
+        <v>0.9939828252518585</v>
       </c>
       <c r="F4">
-        <v>0.9913920443270834</v>
+        <v>0.9915119850352294</v>
       </c>
       <c r="G4">
-        <v>1.001721851899061</v>
+        <v>1.00369818621128</v>
       </c>
       <c r="H4">
-        <v>0.9835718836140037</v>
+        <v>0.984758933856594</v>
       </c>
       <c r="I4">
-        <v>0.9968243014785736</v>
+        <v>0.996148678369443</v>
       </c>
       <c r="J4">
-        <v>0.9930399131349215</v>
+        <v>0.9922747580120095</v>
       </c>
       <c r="K4">
-        <v>0.9967543337209388</v>
+        <v>0.9973039466221253</v>
       </c>
       <c r="L4">
-        <v>0.9862251321333295</v>
+        <v>0.9866765953859452</v>
       </c>
       <c r="M4">
-        <v>1.001706191530867</v>
+        <v>1.003685926047098</v>
       </c>
       <c r="N4">
-        <v>1.001721851899061</v>
+        <v>1.00369818621128</v>
       </c>
       <c r="O4">
-        <v>0.9896615716824883</v>
+        <v>0.9939828252518585</v>
       </c>
       <c r="P4">
-        <v>0.9935716520390281</v>
+        <v>0.9893708795542262</v>
       </c>
       <c r="Q4">
-        <v>0.9936816650880124</v>
+        <v>0.992747405143544</v>
       </c>
       <c r="R4">
-        <v>0.9902383958973533</v>
+        <v>0.9941466484399109</v>
       </c>
       <c r="S4">
-        <v>0.9936816650880124</v>
+        <v>0.9900845813812272</v>
       </c>
       <c r="T4">
-        <v>0.9931092598977802</v>
+        <v>0.994146648439911</v>
       </c>
       <c r="U4">
-        <v>0.9948317782980365</v>
+        <v>0.9934879825887406</v>
       </c>
       <c r="V4">
-        <v>0.9931600900073605</v>
+        <v>0.9955300233132485</v>
+      </c>
+      <c r="W4">
+        <v>0.9932944885930607</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -732,67 +759,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.007713005038939</v>
+        <v>1.007341267463998</v>
       </c>
       <c r="D5">
-        <v>0.9770311086748591</v>
+        <v>0.9769087892911116</v>
       </c>
       <c r="E5">
-        <v>0.9952757467413992</v>
+        <v>0.9956190279053817</v>
       </c>
       <c r="F5">
-        <v>0.9904145049249151</v>
+        <v>0.9904191524181927</v>
       </c>
       <c r="G5">
-        <v>1.007713005038939</v>
+        <v>1.007341267463998</v>
       </c>
       <c r="H5">
-        <v>0.9770311086748591</v>
+        <v>0.9769087892911116</v>
       </c>
       <c r="I5">
-        <v>0.9980698902527639</v>
+        <v>0.9981166925210559</v>
       </c>
       <c r="J5">
-        <v>0.9912380968050574</v>
+        <v>0.9914007440302651</v>
       </c>
       <c r="K5">
-        <v>0.9988479182554367</v>
+        <v>0.9989154577641843</v>
       </c>
       <c r="L5">
-        <v>0.9824548240114037</v>
+        <v>0.9823576474895908</v>
       </c>
       <c r="M5">
-        <v>1.007706285113958</v>
+        <v>1.007336105493718</v>
       </c>
       <c r="N5">
-        <v>1.007713005038939</v>
+        <v>1.007341267463998</v>
       </c>
       <c r="O5">
-        <v>0.9861534277081292</v>
+        <v>0.9956190279053817</v>
       </c>
       <c r="P5">
-        <v>0.9928451258331572</v>
+        <v>0.9862639085982466</v>
       </c>
       <c r="Q5">
-        <v>0.9933399534850658</v>
+        <v>0.9930190901617872</v>
       </c>
       <c r="R5">
-        <v>0.9875737867803912</v>
+        <v>0.9932896948868303</v>
       </c>
       <c r="S5">
-        <v>0.9933399534850658</v>
+        <v>0.987648989871562</v>
       </c>
       <c r="T5">
-        <v>0.9926085913450281</v>
+        <v>0.9932896948868303</v>
       </c>
       <c r="U5">
-        <v>0.9956294740838103</v>
+        <v>0.992572059269671</v>
       </c>
       <c r="V5">
-        <v>0.9926306368380968</v>
+        <v>0.9955259009085363</v>
+      </c>
+      <c r="W5">
+        <v>0.9926348473604725</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9963007423414094</v>
+        <v>0.9964632770323403</v>
       </c>
       <c r="D6">
-        <v>0.9923870652040913</v>
+        <v>0.9924118810084416</v>
       </c>
       <c r="E6">
-        <v>0.9939420579948938</v>
+        <v>0.993773031237944</v>
       </c>
       <c r="F6">
-        <v>0.9929648207548359</v>
+        <v>0.9930489074098244</v>
       </c>
       <c r="G6">
-        <v>0.9963007423414094</v>
+        <v>0.9964632770323403</v>
       </c>
       <c r="H6">
-        <v>0.9923870652040913</v>
+        <v>0.9924118810084416</v>
       </c>
       <c r="I6">
-        <v>0.9941549139199468</v>
+        <v>0.99411028412095</v>
       </c>
       <c r="J6">
-        <v>0.9941770159570492</v>
+        <v>0.9940568388390248</v>
       </c>
       <c r="K6">
-        <v>0.9949538457946937</v>
+        <v>0.9949920963782543</v>
       </c>
       <c r="L6">
-        <v>0.9915346711634828</v>
+        <v>0.9915570012361647</v>
       </c>
       <c r="M6">
-        <v>0.9962892253680199</v>
+        <v>0.996449271428874</v>
       </c>
       <c r="N6">
-        <v>0.9963007423414094</v>
+        <v>0.9964632770323403</v>
       </c>
       <c r="O6">
-        <v>0.9931645615994925</v>
+        <v>0.993773031237944</v>
       </c>
       <c r="P6">
-        <v>0.9934534393748649</v>
+        <v>0.9930924561231929</v>
       </c>
       <c r="Q6">
-        <v>0.9942099551801314</v>
+        <v>0.9934109693238842</v>
       </c>
       <c r="R6">
-        <v>0.9930979813179404</v>
+        <v>0.9942160630929088</v>
       </c>
       <c r="S6">
-        <v>0.9942099551801316</v>
+        <v>0.9930779398854034</v>
       </c>
       <c r="T6">
-        <v>0.9938986715738076</v>
+        <v>0.9942160630929088</v>
       </c>
       <c r="U6">
-        <v>0.994379085727328</v>
+        <v>0.9939242741721377</v>
       </c>
       <c r="V6">
-        <v>0.9938018916413004</v>
+        <v>0.9944320747441783</v>
+      </c>
+      <c r="W6">
+        <v>0.993801664657868</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9961627733308657</v>
+        <v>1.102512415797626</v>
       </c>
       <c r="D7">
-        <v>0.9954616113850157</v>
+        <v>1.100149909827876</v>
       </c>
       <c r="E7">
-        <v>0.9925754255458323</v>
+        <v>0.8635026292527483</v>
       </c>
       <c r="F7">
-        <v>0.993403319123317</v>
+        <v>1.009573608983402</v>
       </c>
       <c r="G7">
-        <v>0.9961627733308657</v>
+        <v>1.102512415797626</v>
       </c>
       <c r="H7">
-        <v>0.9954616113850157</v>
+        <v>1.100149909827876</v>
       </c>
       <c r="I7">
-        <v>0.9932338895205907</v>
+        <v>0.945893760916121</v>
       </c>
       <c r="J7">
-        <v>0.9940763603872202</v>
+        <v>0.9475770775616994</v>
       </c>
       <c r="K7">
-        <v>0.9946601343219788</v>
+        <v>1.024563217950286</v>
       </c>
       <c r="L7">
-        <v>0.993023873026385</v>
+        <v>1.044359231486226</v>
       </c>
       <c r="M7">
-        <v>0.9961481222945897</v>
+        <v>1.102512415797626</v>
       </c>
       <c r="N7">
-        <v>0.9961627733308657</v>
+        <v>1.102512415797626</v>
       </c>
       <c r="O7">
-        <v>0.994018518465424</v>
+        <v>0.8635026292527483</v>
       </c>
       <c r="P7">
-        <v>0.9929893723345746</v>
+        <v>0.9818262695403119</v>
       </c>
       <c r="Q7">
-        <v>0.9947332700872379</v>
+        <v>0.9365381191180749</v>
       </c>
       <c r="R7">
-        <v>0.9938134520180549</v>
+        <v>1.022054984959417</v>
       </c>
       <c r="S7">
-        <v>0.9947332700872379</v>
+        <v>0.9910753826880084</v>
       </c>
       <c r="T7">
-        <v>0.9944007823462576</v>
+        <v>1.022054984959417</v>
       </c>
       <c r="U7">
-        <v>0.9947531805431792</v>
+        <v>1.018934640965413</v>
       </c>
       <c r="V7">
-        <v>0.9940746733301506</v>
+        <v>1.035650195931856</v>
+      </c>
+      <c r="W7">
+        <v>1.004766481471998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9351743044627683</v>
+      </c>
+      <c r="D8">
+        <v>0.9625785200588551</v>
+      </c>
+      <c r="E8">
+        <v>1.045963227266105</v>
+      </c>
+      <c r="F8">
+        <v>0.9924926841183469</v>
+      </c>
+      <c r="G8">
+        <v>0.9351743044627683</v>
+      </c>
+      <c r="H8">
+        <v>0.9625785200588551</v>
+      </c>
+      <c r="I8">
+        <v>1.005690499239094</v>
+      </c>
+      <c r="J8">
+        <v>1.014279601002294</v>
+      </c>
+      <c r="K8">
+        <v>0.9784386172537788</v>
+      </c>
+      <c r="L8">
+        <v>0.9868743649618772</v>
+      </c>
+      <c r="M8">
+        <v>0.9351743044627683</v>
+      </c>
+      <c r="N8">
+        <v>0.9351743044627683</v>
+      </c>
+      <c r="O8">
+        <v>1.045963227266105</v>
+      </c>
+      <c r="P8">
+        <v>1.00427087366248</v>
+      </c>
+      <c r="Q8">
+        <v>1.019227955692226</v>
+      </c>
+      <c r="R8">
+        <v>0.9812386839292428</v>
+      </c>
+      <c r="S8">
+        <v>1.000344810481102</v>
+      </c>
+      <c r="T8">
+        <v>0.9812386839292428</v>
+      </c>
+      <c r="U8">
+        <v>0.9840521839765188</v>
+      </c>
+      <c r="V8">
+        <v>0.9742766080737688</v>
+      </c>
+      <c r="W8">
+        <v>0.9901864772953899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.88</v>
+      </c>
+      <c r="D9">
+        <v>0.23</v>
+      </c>
+      <c r="E9">
+        <v>0.89</v>
+      </c>
+      <c r="F9">
+        <v>0.85</v>
+      </c>
+      <c r="G9">
+        <v>1.88</v>
+      </c>
+      <c r="H9">
+        <v>0.23</v>
+      </c>
+      <c r="I9">
+        <v>1.2</v>
+      </c>
+      <c r="J9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K9">
+        <v>1.33</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>1.88</v>
+      </c>
+      <c r="N9">
+        <v>1.88</v>
+      </c>
+      <c r="O9">
+        <v>0.89</v>
+      </c>
+      <c r="P9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.87</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0.6566666666666667</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.9625</v>
+      </c>
+      <c r="V9">
+        <v>1.146</v>
+      </c>
+      <c r="W9">
+        <v>0.9462499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.63</v>
+      </c>
+      <c r="D10">
+        <v>0.22</v>
+      </c>
+      <c r="E10">
+        <v>1.14</v>
+      </c>
+      <c r="F10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.63</v>
+      </c>
+      <c r="H10">
+        <v>0.22</v>
+      </c>
+      <c r="I10">
+        <v>1.29</v>
+      </c>
+      <c r="J10">
+        <v>0.78</v>
+      </c>
+      <c r="K10">
+        <v>1.23</v>
+      </c>
+      <c r="L10">
+        <v>0.47</v>
+      </c>
+      <c r="M10">
+        <v>1.63</v>
+      </c>
+      <c r="N10">
+        <v>1.63</v>
+      </c>
+      <c r="O10">
+        <v>1.14</v>
+      </c>
+      <c r="P10">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.975</v>
+      </c>
+      <c r="R10">
+        <v>0.9966666666666666</v>
+      </c>
+      <c r="S10">
+        <v>0.7233333333333333</v>
+      </c>
+      <c r="T10">
+        <v>0.9966666666666666</v>
+      </c>
+      <c r="U10">
+        <v>0.95</v>
+      </c>
+      <c r="V10">
+        <v>1.086</v>
+      </c>
+      <c r="W10">
+        <v>0.94625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9943153340810815</v>
+      </c>
+      <c r="D11">
+        <v>0.9939049416825618</v>
+      </c>
+      <c r="E11">
+        <v>0.9941624606196982</v>
+      </c>
+      <c r="F11">
+        <v>0.9934084552270573</v>
+      </c>
+      <c r="G11">
+        <v>0.9943153340810815</v>
+      </c>
+      <c r="H11">
+        <v>0.9939049416825618</v>
+      </c>
+      <c r="I11">
+        <v>0.9935580259769844</v>
+      </c>
+      <c r="J11">
+        <v>0.9950119991389479</v>
+      </c>
+      <c r="K11">
+        <v>0.9942616629124984</v>
+      </c>
+      <c r="L11">
+        <v>0.9925809888011333</v>
+      </c>
+      <c r="M11">
+        <v>0.9943020649766697</v>
+      </c>
+      <c r="N11">
+        <v>0.9943153340810815</v>
+      </c>
+      <c r="O11">
+        <v>0.9941624606196982</v>
+      </c>
+      <c r="P11">
+        <v>0.99403370115113</v>
+      </c>
+      <c r="Q11">
+        <v>0.9937854579233778</v>
+      </c>
+      <c r="R11">
+        <v>0.9941275787944471</v>
+      </c>
+      <c r="S11">
+        <v>0.9938252858431058</v>
+      </c>
+      <c r="T11">
+        <v>0.9941275787944471</v>
+      </c>
+      <c r="U11">
+        <v>0.9939477979025997</v>
+      </c>
+      <c r="V11">
+        <v>0.994021305138296</v>
+      </c>
+      <c r="W11">
+        <v>0.9939004835549954</v>
       </c>
     </row>
   </sheetData>
